--- a/xlnt/tests/data/13_custom_heights_widths.xlsx
+++ b/xlnt/tests/data/13_custom_heights_widths.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Development/xlnt/tests/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
@@ -15,11 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -371,12 +361,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
@@ -410,7 +400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
